--- a/output/Measurements/simulation run with measurements- different sets of parameters.xlsx
+++ b/output/Measurements/simulation run with measurements- different sets of parameters.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheng\source\repos\cell_death_prop\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheng\source\repos\cell_death_prop\2\output\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC671660-0CB1-4D8B-8F63-97B8F4666663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072C4671-C796-4CFA-8142-ED6EDCCA3E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{9B504855-F8EA-4D6F-96B8-70C08E958601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,22 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>signal_internalization_rate</t>
-  </si>
-  <si>
-    <t>signal_diffusion_coefficient</t>
-  </si>
-  <si>
-    <t>diffusion_coefficient</t>
-  </si>
-  <si>
-    <t>death_threshold</t>
-  </si>
-  <si>
-    <t>internalized substrate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>sum of time diff</t>
   </si>
@@ -57,20 +44,102 @@
     <t>20160909_b16f10_aMSH_xy38</t>
   </si>
   <si>
-    <t># of cells left after 500 mins</t>
+    <t>Areas Ratio</t>
   </si>
   <si>
-    <t>Area Ratio</t>
+    <t>last cell died at 395</t>
   </si>
   <si>
-    <t>EMD</t>
+    <t>last cell died at 405</t>
+  </si>
+  <si>
+    <t>last cell died at 310</t>
+  </si>
+  <si>
+    <t>20160909_b16f10_aMSH_xy39</t>
+  </si>
+  <si>
+    <t>last cell died at 180</t>
+  </si>
+  <si>
+    <t>last cell died at 500</t>
+  </si>
+  <si>
+    <t>signal_diffusion_
+coefficient</t>
+  </si>
+  <si>
+    <t>signal_internalization
+_rate</t>
+  </si>
+  <si>
+    <t># of cells left 
+after 500 mins</t>
+  </si>
+  <si>
+    <t>diffusion_
+coefficient</t>
+  </si>
+  <si>
+    <t>death_
+threshold</t>
+  </si>
+  <si>
+    <t>internalized 
+substrate</t>
+  </si>
+  <si>
+    <t>Earth Movers
+ Distance</t>
+  </si>
+  <si>
+    <t>Median of time diff- 
+|sim-real|/real</t>
+  </si>
+  <si>
+    <t>Median of normalized time diff-
+|sim-real|/real</t>
+  </si>
+  <si>
+    <t>20161129_MCF7_FB_xy11</t>
+  </si>
+  <si>
+    <t>last cell died at 135</t>
+  </si>
+  <si>
+    <t>last cell died at 215</t>
+  </si>
+  <si>
+    <t>0.8221, 0.4388</t>
+  </si>
+  <si>
+    <t>Pearson correlation- 
+sim, real</t>
+  </si>
+  <si>
+    <t>0.81968,  0.438799</t>
+  </si>
+  <si>
+    <t>last cell died at 220</t>
+  </si>
+  <si>
+    <t>0.821,0.4388</t>
+  </si>
+  <si>
+    <t>0.63378,0.17345</t>
+  </si>
+  <si>
+    <t>median of time difference proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normalized median of time difference proportion </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +149,61 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,9 +231,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -118,6 +264,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBF95DF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -127,6 +278,1906 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20160909_b16f10_aMSH_xy38</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BF95DF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>median of time difference proportion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>normalized median of time difference proportion </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.78638497652582096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0385036097134099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E35-4C5E-BBD2-BB4E2AD391C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20160909_b16f10_aMSH_xy39</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>median of time difference proportion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>normalized median of time difference proportion </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.126126126126126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71302089152049997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E35-4C5E-BBD2-BB4E2AD391C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="535188920"/>
+        <c:axId val="535188264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="535188920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535188264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="535188264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535188920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20160909_b16f10_aMSH_xy38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20160909_b16f10_aMSH_xy39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20161129_MCF7_FB_xy11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.39607458299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.111728337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10757884028484201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-149A-47A9-9E8C-FD7BE94C8F72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="415432656"/>
+        <c:axId val="90344072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="415432656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Experiment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90344072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90344072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Area ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415432656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153987</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE6E1D7-CC47-45ED-A318-239696D9174C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1141412</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6738E6B8-92C3-4200-841A-102D6A2B0708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,124 +2477,849 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C4A78-B00B-455A-A0D3-39B1DABBDAD1}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.2265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.40625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.2265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="17.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>600</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="H4" s="3">
+        <v>30085</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.39607458299999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.47910797199999999</v>
+      </c>
+      <c r="K4">
+        <v>0.78638497652582096</v>
+      </c>
+      <c r="L4">
+        <v>1.0385036097134099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="H6" s="3">
+        <v>24480</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.15996074599999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.51811224199999995</v>
+      </c>
+      <c r="K6">
+        <v>0.52749336367083799</v>
+      </c>
+      <c r="L6">
+        <v>0.51355520419574996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.645</v>
+      </c>
+      <c r="H8" s="3">
+        <v>24585</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.145240432</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.52223371299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H10" s="3">
+        <v>24620</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.15662414131501401</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.52483401525710704</v>
+      </c>
+      <c r="K10">
+        <v>0.58402411499999995</v>
+      </c>
+      <c r="L10">
+        <v>0.510277274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H12" s="3">
+        <v>24935</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.110317755744306</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.70630816959669096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>26825</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.30480863591756602</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.35423197492163</v>
+      </c>
+      <c r="K14">
+        <v>0.27268207799999999</v>
+      </c>
+      <c r="L14">
+        <v>0.38731636000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>600</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="H18" s="4">
+        <v>24175</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.111728337</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.82555555599999997</v>
+      </c>
+      <c r="K18">
+        <v>0.126126126126126</v>
+      </c>
+      <c r="L18">
+        <v>0.71302089152049997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>200</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="H20" s="4">
+        <v>39370</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.30395364600000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.90111111099999996</v>
+      </c>
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+      <c r="L20">
+        <v>0.63554872940519402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>200</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.645</v>
+      </c>
+      <c r="H22" s="4">
+        <v>38775</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.30058550000000001</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="K22">
+        <v>0.75</v>
+      </c>
+      <c r="L22">
+        <v>0.62813817800000005</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C24" s="4">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4">
+        <v>200</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H24" s="4">
+        <v>46575</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.31597333267730998</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.0422222222222199</v>
+      </c>
+      <c r="K24">
+        <v>0.87387387387387305</v>
+      </c>
+      <c r="L24">
+        <v>0.68501298483706097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>600</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H26" s="4">
+        <v>60655</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.151625019</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.2177777780000001</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L26">
+        <v>0.82337009632835401</v>
+      </c>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>200</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="H28" s="4">
+        <v>31295</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.221939039</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.74888888899999995</v>
+      </c>
+      <c r="K28">
+        <v>0.25</v>
+      </c>
+      <c r="L28">
+        <v>0.53566441378539897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="8">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8">
+        <v>600</v>
+      </c>
+      <c r="E32" s="8">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="H32" s="8">
+        <v>45265</v>
+      </c>
+      <c r="I32">
+        <v>0.10757884028484201</v>
+      </c>
+      <c r="J32">
+        <v>1.69753086419752</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.89359650076070396</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.75">
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>200</v>
+      </c>
+      <c r="E34" s="8">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8">
+        <v>3</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2.44</v>
+      </c>
+      <c r="H34">
+        <v>39405</v>
+      </c>
+      <c r="I34">
+        <v>0.200661241098677</v>
+      </c>
+      <c r="J34">
+        <v>1.61316872427983</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.84878307021949495</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.75">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>200</v>
+      </c>
+      <c r="E36" s="8">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2.645</v>
+      </c>
+      <c r="H36">
+        <v>39135</v>
+      </c>
+      <c r="I36">
+        <v>0.118006103763987</v>
+      </c>
+      <c r="J36">
+        <v>1.63168724279835</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.87055613623097905</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B17:J17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C84B61-67B5-4CD6-8FEC-01C523685D7D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="31.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.31640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0.78638497652582096</v>
+      </c>
+      <c r="C2">
+        <v>1.0385036097134099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>600</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2.1309999999999998</v>
-      </c>
-      <c r="H2">
-        <v>30085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>600</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2.0499999999999998</v>
+      <c r="B3">
+        <v>0.126126126126126</v>
+      </c>
+      <c r="C3">
+        <v>0.71302089152049997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB2F4D-4B1D-459A-9472-E8D0B4480FD5}">
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B2" s="3">
+        <v>0.39607458299999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.111728337</v>
+      </c>
+      <c r="D2">
+        <v>0.10757884028484201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>